--- a/data/2023/fid/FID-POL-DE-46.xlsx
+++ b/data/2023/fid/FID-POL-DE-46.xlsx
@@ -106,7 +106,7 @@
     <t>Social Science Electronic Publ.</t>
   </si>
   <si>
-    <t>[S.l.]</t>
+    <t>[Erscheinungsort nicht ermittelbar]</t>
   </si>
   <si>
     <t>eng</t>
@@ -124,10 +124,10 @@
     <t>FID-POL-DE-46</t>
   </si>
   <si>
-    <t>2006 -</t>
-  </si>
-  <si>
     <t>http://www.ssrn.com/;https://www.ssrn.com/index.cfm/en/fen/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=5727;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=9648</t>
+  </si>
+  <si>
+    <t>LF;LF</t>
   </si>
   <si>
     <t>1</t>
@@ -772,13 +772,13 @@
         <v>32</v>
       </c>
       <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
       </c>
       <c r="U2" t="s">
         <v>32</v>
